--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.405597999999999</v>
+        <v>6.086760000000001</v>
       </c>
       <c r="H2">
-        <v>25.216794</v>
+        <v>18.26028</v>
       </c>
       <c r="I2">
-        <v>0.3214983278049074</v>
+        <v>0.2669498455274402</v>
       </c>
       <c r="J2">
-        <v>0.3214983278049074</v>
+        <v>0.2669498455274402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N2">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q2">
-        <v>297.036038669034</v>
+        <v>151.67301224572</v>
       </c>
       <c r="R2">
-        <v>2673.324348021306</v>
+        <v>1365.05711021148</v>
       </c>
       <c r="S2">
-        <v>0.1275779677540396</v>
+        <v>0.07807746837332259</v>
       </c>
       <c r="T2">
-        <v>0.1275779677540396</v>
+        <v>0.07807746837332261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.405597999999999</v>
+        <v>6.086760000000001</v>
       </c>
       <c r="H3">
-        <v>25.216794</v>
+        <v>18.26028</v>
       </c>
       <c r="I3">
-        <v>0.3214983278049074</v>
+        <v>0.2669498455274402</v>
       </c>
       <c r="J3">
-        <v>0.3214983278049074</v>
+        <v>0.2669498455274402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P3">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q3">
-        <v>340.387803883126</v>
+        <v>246.48560033012</v>
       </c>
       <c r="R3">
-        <v>3063.490234948134</v>
+        <v>2218.37040297108</v>
       </c>
       <c r="S3">
-        <v>0.1461976952771588</v>
+        <v>0.1268846143378249</v>
       </c>
       <c r="T3">
-        <v>0.1461976952771589</v>
+        <v>0.1268846143378249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.405597999999999</v>
+        <v>6.086760000000001</v>
       </c>
       <c r="H4">
-        <v>25.216794</v>
+        <v>18.26028</v>
       </c>
       <c r="I4">
-        <v>0.3214983278049074</v>
+        <v>0.2669498455274402</v>
       </c>
       <c r="J4">
-        <v>0.3214983278049074</v>
+        <v>0.2669498455274402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N4">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O4">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P4">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q4">
-        <v>111.111280016952</v>
+        <v>120.41720748124</v>
       </c>
       <c r="R4">
-        <v>1000.001520152568</v>
+        <v>1083.75486733116</v>
       </c>
       <c r="S4">
-        <v>0.04772266477370898</v>
+        <v>0.06198776281629265</v>
       </c>
       <c r="T4">
-        <v>0.04772266477370898</v>
+        <v>0.06198776281629265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>37.638536</v>
       </c>
       <c r="I5">
-        <v>0.4798677573772784</v>
+        <v>0.5502435543747958</v>
       </c>
       <c r="J5">
-        <v>0.4798677573772784</v>
+        <v>0.5502435543747957</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N5">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q5">
-        <v>443.3553938197627</v>
+        <v>312.6321245697752</v>
       </c>
       <c r="R5">
-        <v>3990.198544377864</v>
+        <v>2813.689121127976</v>
       </c>
       <c r="S5">
-        <v>0.1904226180424546</v>
+        <v>0.1609351885161763</v>
       </c>
       <c r="T5">
-        <v>0.1904226180424545</v>
+        <v>0.1609351885161763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>37.638536</v>
       </c>
       <c r="I6">
-        <v>0.4798677573772784</v>
+        <v>0.5502435543747958</v>
       </c>
       <c r="J6">
-        <v>0.4798677573772784</v>
+        <v>0.5502435543747957</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.486111</v>
       </c>
       <c r="O6">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P6">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q6">
         <v>508.0621513748329</v>
       </c>
       <c r="R6">
-        <v>4572.559362373497</v>
+        <v>4572.559362373496</v>
       </c>
       <c r="S6">
-        <v>0.2182143858892758</v>
+        <v>0.2615376721824824</v>
       </c>
       <c r="T6">
-        <v>0.2182143858892758</v>
+        <v>0.2615376721824824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>37.638536</v>
       </c>
       <c r="I7">
-        <v>0.4798677573772784</v>
+        <v>0.5502435543747958</v>
       </c>
       <c r="J7">
-        <v>0.4798677573772784</v>
+        <v>0.5502435543747957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N7">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O7">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P7">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q7">
-        <v>165.8444730493547</v>
+        <v>248.2068948998658</v>
       </c>
       <c r="R7">
-        <v>1492.600257444192</v>
+        <v>2233.862054098792</v>
       </c>
       <c r="S7">
-        <v>0.07123075344554813</v>
+        <v>0.1277706936761371</v>
       </c>
       <c r="T7">
-        <v>0.07123075344554812</v>
+        <v>0.1277706936761371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.193298666666667</v>
+        <v>4.168198333333334</v>
       </c>
       <c r="H8">
-        <v>15.579896</v>
+        <v>12.504595</v>
       </c>
       <c r="I8">
-        <v>0.1986339148178141</v>
+        <v>0.1828066000977641</v>
       </c>
       <c r="J8">
-        <v>0.1986339148178141</v>
+        <v>0.1828066000977641</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N8">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O8">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P8">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q8">
-        <v>183.5201806667227</v>
+        <v>103.8653071345439</v>
       </c>
       <c r="R8">
-        <v>1651.681626000504</v>
+        <v>934.7877642108949</v>
       </c>
       <c r="S8">
-        <v>0.07882252872824717</v>
+        <v>0.05346725902525633</v>
       </c>
       <c r="T8">
-        <v>0.07882252872824716</v>
+        <v>0.05346725902525633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.193298666666667</v>
+        <v>4.168198333333334</v>
       </c>
       <c r="H9">
-        <v>15.579896</v>
+        <v>12.504595</v>
       </c>
       <c r="I9">
-        <v>0.1986339148178141</v>
+        <v>0.1828066000977641</v>
       </c>
       <c r="J9">
-        <v>0.1986339148178141</v>
+        <v>0.1828066000977641</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.486111</v>
       </c>
       <c r="O9">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P9">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q9">
-        <v>210.3045527582729</v>
+        <v>168.7927351311161</v>
       </c>
       <c r="R9">
-        <v>1892.740974824456</v>
+        <v>1519.134616180045</v>
       </c>
       <c r="S9">
-        <v>0.09032650573494104</v>
+        <v>0.08689027298736349</v>
       </c>
       <c r="T9">
-        <v>0.09032650573494103</v>
+        <v>0.08689027298736347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.193298666666667</v>
+        <v>4.168198333333334</v>
       </c>
       <c r="H10">
-        <v>15.579896</v>
+        <v>12.504595</v>
       </c>
       <c r="I10">
-        <v>0.1986339148178141</v>
+        <v>0.1828066000977641</v>
       </c>
       <c r="J10">
-        <v>0.1986339148178141</v>
+        <v>0.1828066000977641</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N10">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O10">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P10">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q10">
-        <v>68.64878172423467</v>
+        <v>82.46140861935723</v>
       </c>
       <c r="R10">
-        <v>617.839035518112</v>
+        <v>742.152677574215</v>
       </c>
       <c r="S10">
-        <v>0.02948488035462596</v>
+        <v>0.04244906808514431</v>
       </c>
       <c r="T10">
-        <v>0.02948488035462595</v>
+        <v>0.04244906808514431</v>
       </c>
     </row>
   </sheetData>
